--- a/excel/luminance.xlsx
+++ b/excel/luminance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>pH</t>
   </si>
@@ -22,49 +22,121 @@
     <t>Luminance</t>
   </si>
   <si>
+    <t>Logarithmic luminance</t>
+  </si>
+  <si>
+    <t>147.58</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>139.49</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>142.06</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
     <t>145.93</t>
   </si>
   <si>
+    <t>4.99</t>
+  </si>
+  <si>
     <t>146.54</t>
   </si>
   <si>
     <t>148.23</t>
   </si>
   <si>
+    <t>5.01</t>
+  </si>
+  <si>
     <t>86.50</t>
   </si>
   <si>
+    <t>4.47</t>
+  </si>
+  <si>
     <t>96.41</t>
   </si>
   <si>
+    <t>4.58</t>
+  </si>
+  <si>
     <t>96.58</t>
   </si>
   <si>
     <t>57.25</t>
   </si>
   <si>
+    <t>4.06</t>
+  </si>
+  <si>
     <t>62.03</t>
   </si>
   <si>
+    <t>4.14</t>
+  </si>
+  <si>
     <t>61.04</t>
   </si>
   <si>
+    <t>4.13</t>
+  </si>
+  <si>
     <t>44.70</t>
   </si>
   <si>
+    <t>3.82</t>
+  </si>
+  <si>
     <t>50.51</t>
   </si>
   <si>
+    <t>3.94</t>
+  </si>
+  <si>
     <t>49.49</t>
   </si>
   <si>
+    <t>3.92</t>
+  </si>
+  <si>
     <t>37.14</t>
   </si>
   <si>
+    <t>3.64</t>
+  </si>
+  <si>
     <t>37.65</t>
   </si>
   <si>
+    <t>3.65</t>
+  </si>
+  <si>
     <t>37.20</t>
+  </si>
+  <si>
+    <t>34.41</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>40.18</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>37.13</t>
   </si>
 </sst>
 </file>
@@ -457,7 +529,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -465,6 +537,7 @@
   <cols>
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -474,125 +547,239 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
